--- a/data/effects.xlsx
+++ b/data/effects.xlsx
@@ -601,206 +601,329 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>

--- a/data/effects.xlsx
+++ b/data/effects.xlsx
@@ -601,329 +601,206 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>29.0</v>
-      </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
-        <v>32.0</v>
-      </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
-        <v>33.0</v>
-      </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
-        <v>34.0</v>
-      </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
-        <v>35.0</v>
-      </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
-        <v>38.0</v>
-      </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
-        <v>39.0</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>41.0</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
